--- a/assets/templates/results.xlsx
+++ b/assets/templates/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15700" yWindow="7200" windowWidth="27360" windowHeight="15880" tabRatio="500"/>
+    <workbookView xWindow="15700" yWindow="7200" windowWidth="27360" windowHeight="15880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new matches" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>Company</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Wed, Dec 13 - Thu, Dec 14</t>
+  </si>
+  <si>
+    <t>Is Duplicate of JobPostingId #</t>
   </si>
 </sst>
 </file>
@@ -236,8 +239,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -328,12 +335,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -345,20 +346,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,27 +665,27 @@
     <col min="11" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="26" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2498,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N224"/>
+  <dimension ref="A1:O224"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2513,36 +2524,37 @@
     <col min="6" max="6" width="32" style="21" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" style="18" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="18" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="24.5" style="18" customWidth="1"/>
-    <col min="13" max="13" width="54.33203125" style="18" customWidth="1"/>
+    <col min="9" max="10" width="20.6640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="24.5" style="18" customWidth="1"/>
+    <col min="14" max="14" width="54.33203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="26" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="29"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2571,19 +2583,22 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="15"/>
@@ -2597,8 +2612,9 @@
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="15"/>
@@ -2610,8 +2626,9 @@
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="15"/>
@@ -2624,8 +2641,9 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="15"/>
@@ -2638,8 +2656,9 @@
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="15"/>
@@ -2652,8 +2671,9 @@
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="15"/>
@@ -2666,8 +2686,9 @@
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="15"/>
@@ -2680,8 +2701,9 @@
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="15"/>
@@ -2694,8 +2716,9 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="15"/>
@@ -2708,8 +2731,9 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="15"/>
@@ -2722,8 +2746,9 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="15"/>
@@ -2736,8 +2761,9 @@
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="15"/>
@@ -2750,8 +2776,9 @@
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="15"/>
@@ -2765,8 +2792,9 @@
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="15"/>
@@ -2779,8 +2807,9 @@
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="15"/>
@@ -2793,8 +2822,9 @@
       <c r="K17" s="16"/>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="15"/>
@@ -2807,8 +2837,9 @@
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="15"/>
@@ -2821,8 +2852,9 @@
       <c r="K19" s="16"/>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="15"/>
@@ -2835,8 +2867,9 @@
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="15"/>
@@ -2849,8 +2882,9 @@
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="15"/>
@@ -2863,8 +2897,9 @@
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="15"/>
@@ -2877,8 +2912,9 @@
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="15"/>
@@ -2891,8 +2927,9 @@
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="15"/>
@@ -2905,8 +2942,9 @@
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="15"/>
@@ -2919,8 +2957,9 @@
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="15"/>
@@ -2934,8 +2973,9 @@
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="15"/>
@@ -2948,8 +2988,9 @@
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="16"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="15"/>
@@ -2962,8 +3003,9 @@
       <c r="K29" s="16"/>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="15"/>
@@ -2976,8 +3018,9 @@
       <c r="K30" s="16"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="16"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="15"/>
@@ -2990,8 +3033,9 @@
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="16"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="15"/>
@@ -3004,8 +3048,9 @@
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="16"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="15"/>
@@ -3018,8 +3063,9 @@
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="15"/>
@@ -3032,8 +3078,9 @@
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="16"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="15"/>
@@ -3046,8 +3093,9 @@
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="16"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="15"/>
@@ -3060,8 +3108,9 @@
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="16"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="15"/>
@@ -3074,8 +3123,9 @@
       <c r="K37" s="16"/>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="15"/>
@@ -3088,8 +3138,9 @@
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="15"/>
@@ -3103,8 +3154,9 @@
       <c r="K39" s="16"/>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="16"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="15"/>
@@ -3117,8 +3169,9 @@
       <c r="K40" s="16"/>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="16"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="15"/>
@@ -3131,8 +3184,9 @@
       <c r="K41" s="16"/>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="16"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="15"/>
@@ -3145,8 +3199,9 @@
       <c r="K42" s="16"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="16"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="15"/>
@@ -3159,8 +3214,9 @@
       <c r="K43" s="16"/>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="16"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="15"/>
@@ -3173,8 +3229,9 @@
       <c r="K44" s="16"/>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="16"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="15"/>
@@ -3187,8 +3244,9 @@
       <c r="K45" s="16"/>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="16"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="15"/>
@@ -3201,8 +3259,9 @@
       <c r="K46" s="16"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="16"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="15"/>
@@ -3215,8 +3274,9 @@
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="16"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="15"/>
@@ -3229,8 +3289,9 @@
       <c r="K48" s="16"/>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="16"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="15"/>
@@ -3243,8 +3304,9 @@
       <c r="K49" s="16"/>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="16"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="15"/>
@@ -3257,8 +3319,9 @@
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="16"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="15"/>
@@ -3272,8 +3335,9 @@
       <c r="K51" s="16"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="16"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="15"/>
@@ -3286,8 +3350,9 @@
       <c r="K52" s="16"/>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="16"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="15"/>
@@ -3300,8 +3365,9 @@
       <c r="K53" s="16"/>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="16"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="15"/>
@@ -3314,8 +3380,9 @@
       <c r="K54" s="16"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="16"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="15"/>
@@ -3328,8 +3395,9 @@
       <c r="K55" s="16"/>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="16"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="15"/>
@@ -3342,8 +3410,9 @@
       <c r="K56" s="16"/>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="16"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="15"/>
@@ -3356,8 +3425,9 @@
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="16"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="15"/>
@@ -3370,8 +3440,9 @@
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="16"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="15"/>
@@ -3384,8 +3455,9 @@
       <c r="K59" s="16"/>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="16"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="15"/>
@@ -3398,8 +3470,9 @@
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="16"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="15"/>
@@ -3412,8 +3485,9 @@
       <c r="K61" s="16"/>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="16"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="15"/>
@@ -3426,8 +3500,9 @@
       <c r="K62" s="16"/>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="16"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="15"/>
@@ -3441,8 +3516,9 @@
       <c r="K63" s="16"/>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="16"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="15"/>
@@ -3455,8 +3531,9 @@
       <c r="K64" s="16"/>
       <c r="L64" s="16"/>
       <c r="M64" s="16"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="16"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="15"/>
@@ -3469,8 +3546,9 @@
       <c r="K65" s="16"/>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="16"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="15"/>
@@ -3483,8 +3561,9 @@
       <c r="K66" s="16"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="16"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="15"/>
@@ -3497,8 +3576,9 @@
       <c r="K67" s="16"/>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="16"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="15"/>
@@ -3511,8 +3591,9 @@
       <c r="K68" s="16"/>
       <c r="L68" s="16"/>
       <c r="M68" s="16"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="16"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="15"/>
@@ -3525,8 +3606,9 @@
       <c r="K69" s="16"/>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="16"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="15"/>
@@ -3539,8 +3621,9 @@
       <c r="K70" s="16"/>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="16"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="15"/>
@@ -3553,8 +3636,9 @@
       <c r="K71" s="16"/>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="16"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="15"/>
@@ -3567,8 +3651,9 @@
       <c r="K72" s="16"/>
       <c r="L72" s="16"/>
       <c r="M72" s="16"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="16"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="15"/>
@@ -3581,8 +3666,9 @@
       <c r="K73" s="16"/>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="16"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="15"/>
@@ -3595,8 +3681,9 @@
       <c r="K74" s="16"/>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="16"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="15"/>
@@ -3610,8 +3697,9 @@
       <c r="K75" s="16"/>
       <c r="L75" s="16"/>
       <c r="M75" s="16"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="16"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="15"/>
@@ -3624,8 +3712,9 @@
       <c r="K76" s="16"/>
       <c r="L76" s="16"/>
       <c r="M76" s="16"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="16"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="15"/>
@@ -3638,8 +3727,9 @@
       <c r="K77" s="16"/>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="16"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="15"/>
@@ -3652,8 +3742,9 @@
       <c r="K78" s="16"/>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="16"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="15"/>
@@ -3666,8 +3757,9 @@
       <c r="K79" s="16"/>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="16"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="15"/>
@@ -3680,8 +3772,9 @@
       <c r="K80" s="16"/>
       <c r="L80" s="16"/>
       <c r="M80" s="16"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="16"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="15"/>
@@ -3694,8 +3787,9 @@
       <c r="K81" s="16"/>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="16"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="15"/>
@@ -3708,8 +3802,9 @@
       <c r="K82" s="16"/>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="16"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="15"/>
@@ -3722,8 +3817,9 @@
       <c r="K83" s="16"/>
       <c r="L83" s="16"/>
       <c r="M83" s="16"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="16"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="15"/>
@@ -3736,8 +3832,9 @@
       <c r="K84" s="16"/>
       <c r="L84" s="16"/>
       <c r="M84" s="16"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="16"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="15"/>
@@ -3750,8 +3847,9 @@
       <c r="K85" s="16"/>
       <c r="L85" s="16"/>
       <c r="M85" s="16"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="16"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="15"/>
@@ -3764,8 +3862,9 @@
       <c r="K86" s="16"/>
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="16"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="15"/>
@@ -3779,8 +3878,9 @@
       <c r="K87" s="16"/>
       <c r="L87" s="16"/>
       <c r="M87" s="16"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="16"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="15"/>
@@ -3793,8 +3893,9 @@
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
       <c r="M88" s="16"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="16"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="15"/>
@@ -3807,8 +3908,9 @@
       <c r="K89" s="16"/>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="16"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="15"/>
@@ -3821,8 +3923,9 @@
       <c r="K90" s="16"/>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="16"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="15"/>
@@ -3835,8 +3938,9 @@
       <c r="K91" s="16"/>
       <c r="L91" s="16"/>
       <c r="M91" s="16"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="16"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="15"/>
@@ -3849,8 +3953,9 @@
       <c r="K92" s="16"/>
       <c r="L92" s="16"/>
       <c r="M92" s="16"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="16"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="15"/>
@@ -3863,8 +3968,9 @@
       <c r="K93" s="16"/>
       <c r="L93" s="16"/>
       <c r="M93" s="16"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="16"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="15"/>
@@ -3877,8 +3983,9 @@
       <c r="K94" s="16"/>
       <c r="L94" s="16"/>
       <c r="M94" s="16"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="16"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="15"/>
@@ -3891,8 +3998,9 @@
       <c r="K95" s="16"/>
       <c r="L95" s="16"/>
       <c r="M95" s="16"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="16"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="15"/>
@@ -3905,8 +4013,9 @@
       <c r="K96" s="16"/>
       <c r="L96" s="16"/>
       <c r="M96" s="16"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="16"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="15"/>
@@ -3919,8 +4028,9 @@
       <c r="K97" s="16"/>
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="16"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="15"/>
@@ -3933,8 +4043,9 @@
       <c r="K98" s="16"/>
       <c r="L98" s="16"/>
       <c r="M98" s="16"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="16"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="15"/>
@@ -3948,8 +4059,9 @@
       <c r="K99" s="16"/>
       <c r="L99" s="16"/>
       <c r="M99" s="16"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="16"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="15"/>
@@ -3962,8 +4074,9 @@
       <c r="K100" s="16"/>
       <c r="L100" s="16"/>
       <c r="M100" s="16"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="16"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="15"/>
@@ -3976,8 +4089,9 @@
       <c r="K101" s="16"/>
       <c r="L101" s="16"/>
       <c r="M101" s="16"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="16"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="15"/>
@@ -3990,8 +4104,9 @@
       <c r="K102" s="16"/>
       <c r="L102" s="16"/>
       <c r="M102" s="16"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="16"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="15"/>
@@ -4004,8 +4119,9 @@
       <c r="K103" s="16"/>
       <c r="L103" s="16"/>
       <c r="M103" s="16"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="16"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="15"/>
@@ -4018,8 +4134,9 @@
       <c r="K104" s="16"/>
       <c r="L104" s="16"/>
       <c r="M104" s="16"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" s="16"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="15"/>
@@ -4032,8 +4149,9 @@
       <c r="K105" s="16"/>
       <c r="L105" s="16"/>
       <c r="M105" s="16"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="16"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="15"/>
@@ -4046,8 +4164,9 @@
       <c r="K106" s="16"/>
       <c r="L106" s="16"/>
       <c r="M106" s="16"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="16"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="15"/>
@@ -4060,8 +4179,9 @@
       <c r="K107" s="16"/>
       <c r="L107" s="16"/>
       <c r="M107" s="16"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="16"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="15"/>
@@ -4074,8 +4194,9 @@
       <c r="K108" s="16"/>
       <c r="L108" s="16"/>
       <c r="M108" s="16"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="16"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="15"/>
@@ -4088,8 +4209,9 @@
       <c r="K109" s="16"/>
       <c r="L109" s="16"/>
       <c r="M109" s="16"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="16"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="15"/>
@@ -4102,8 +4224,9 @@
       <c r="K110" s="16"/>
       <c r="L110" s="16"/>
       <c r="M110" s="16"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110" s="16"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="15"/>
@@ -4117,8 +4240,9 @@
       <c r="K111" s="16"/>
       <c r="L111" s="16"/>
       <c r="M111" s="16"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111" s="16"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="15"/>
@@ -4131,8 +4255,9 @@
       <c r="K112" s="16"/>
       <c r="L112" s="16"/>
       <c r="M112" s="16"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112" s="16"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="15"/>
@@ -4145,8 +4270,9 @@
       <c r="K113" s="16"/>
       <c r="L113" s="16"/>
       <c r="M113" s="16"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113" s="16"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="15"/>
@@ -4159,8 +4285,9 @@
       <c r="K114" s="16"/>
       <c r="L114" s="16"/>
       <c r="M114" s="16"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114" s="16"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="15"/>
@@ -4173,8 +4300,9 @@
       <c r="K115" s="16"/>
       <c r="L115" s="16"/>
       <c r="M115" s="16"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="16"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="15"/>
@@ -4187,8 +4315,9 @@
       <c r="K116" s="16"/>
       <c r="L116" s="16"/>
       <c r="M116" s="16"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116" s="16"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="15"/>
@@ -4201,8 +4330,9 @@
       <c r="K117" s="16"/>
       <c r="L117" s="16"/>
       <c r="M117" s="16"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117" s="16"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="15"/>
@@ -4215,8 +4345,9 @@
       <c r="K118" s="16"/>
       <c r="L118" s="16"/>
       <c r="M118" s="16"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="16"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="15"/>
@@ -4229,8 +4360,9 @@
       <c r="K119" s="16"/>
       <c r="L119" s="16"/>
       <c r="M119" s="16"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119" s="16"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="15"/>
@@ -4243,8 +4375,9 @@
       <c r="K120" s="16"/>
       <c r="L120" s="16"/>
       <c r="M120" s="16"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="16"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="15"/>
@@ -4257,8 +4390,9 @@
       <c r="K121" s="16"/>
       <c r="L121" s="16"/>
       <c r="M121" s="16"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121" s="16"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="15"/>
@@ -4271,8 +4405,9 @@
       <c r="K122" s="16"/>
       <c r="L122" s="16"/>
       <c r="M122" s="16"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122" s="16"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="15"/>
@@ -4286,8 +4421,9 @@
       <c r="K123" s="16"/>
       <c r="L123" s="16"/>
       <c r="M123" s="16"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123" s="16"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="15"/>
@@ -4300,8 +4436,9 @@
       <c r="K124" s="16"/>
       <c r="L124" s="16"/>
       <c r="M124" s="16"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="16"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="15"/>
@@ -4314,8 +4451,9 @@
       <c r="K125" s="16"/>
       <c r="L125" s="16"/>
       <c r="M125" s="16"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="16"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="15"/>
@@ -4328,8 +4466,9 @@
       <c r="K126" s="16"/>
       <c r="L126" s="16"/>
       <c r="M126" s="16"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="16"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="15"/>
@@ -4342,8 +4481,9 @@
       <c r="K127" s="16"/>
       <c r="L127" s="16"/>
       <c r="M127" s="16"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127" s="16"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="15"/>
@@ -4356,8 +4496,9 @@
       <c r="K128" s="16"/>
       <c r="L128" s="16"/>
       <c r="M128" s="16"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128" s="16"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="15"/>
@@ -4370,8 +4511,9 @@
       <c r="K129" s="16"/>
       <c r="L129" s="16"/>
       <c r="M129" s="16"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129" s="16"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="15"/>
@@ -4384,8 +4526,9 @@
       <c r="K130" s="16"/>
       <c r="L130" s="16"/>
       <c r="M130" s="16"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="16"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="15"/>
@@ -4398,8 +4541,9 @@
       <c r="K131" s="16"/>
       <c r="L131" s="16"/>
       <c r="M131" s="16"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131" s="16"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="15"/>
@@ -4412,8 +4556,9 @@
       <c r="K132" s="16"/>
       <c r="L132" s="16"/>
       <c r="M132" s="16"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="16"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="15"/>
@@ -4426,8 +4571,9 @@
       <c r="K133" s="16"/>
       <c r="L133" s="16"/>
       <c r="M133" s="16"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133" s="16"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="15"/>
@@ -4440,8 +4586,9 @@
       <c r="K134" s="16"/>
       <c r="L134" s="16"/>
       <c r="M134" s="16"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134" s="16"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="15"/>
@@ -4455,8 +4602,9 @@
       <c r="K135" s="16"/>
       <c r="L135" s="16"/>
       <c r="M135" s="16"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135" s="16"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="15"/>
@@ -4469,8 +4617,9 @@
       <c r="K136" s="16"/>
       <c r="L136" s="16"/>
       <c r="M136" s="16"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136" s="16"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="15"/>
@@ -4483,8 +4632,9 @@
       <c r="K137" s="16"/>
       <c r="L137" s="16"/>
       <c r="M137" s="16"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137" s="16"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="15"/>
@@ -4497,8 +4647,9 @@
       <c r="K138" s="16"/>
       <c r="L138" s="16"/>
       <c r="M138" s="16"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="16"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="15"/>
@@ -4511,8 +4662,9 @@
       <c r="K139" s="16"/>
       <c r="L139" s="16"/>
       <c r="M139" s="16"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" s="16"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="15"/>
@@ -4525,8 +4677,9 @@
       <c r="K140" s="16"/>
       <c r="L140" s="16"/>
       <c r="M140" s="16"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140" s="16"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="15"/>
@@ -4539,8 +4692,9 @@
       <c r="K141" s="16"/>
       <c r="L141" s="16"/>
       <c r="M141" s="16"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141" s="16"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="15"/>
@@ -4553,8 +4707,9 @@
       <c r="K142" s="16"/>
       <c r="L142" s="16"/>
       <c r="M142" s="16"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142" s="16"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="15"/>
@@ -4567,8 +4722,9 @@
       <c r="K143" s="16"/>
       <c r="L143" s="16"/>
       <c r="M143" s="16"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143" s="16"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="15"/>
@@ -4581,8 +4737,9 @@
       <c r="K144" s="16"/>
       <c r="L144" s="16"/>
       <c r="M144" s="16"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144" s="16"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="15"/>
@@ -4595,8 +4752,9 @@
       <c r="K145" s="16"/>
       <c r="L145" s="16"/>
       <c r="M145" s="16"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145" s="16"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="15"/>
@@ -4609,8 +4767,9 @@
       <c r="K146" s="16"/>
       <c r="L146" s="16"/>
       <c r="M146" s="16"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146" s="16"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="15"/>
@@ -4624,8 +4783,9 @@
       <c r="K147" s="16"/>
       <c r="L147" s="16"/>
       <c r="M147" s="16"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147" s="16"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="15"/>
@@ -4638,8 +4798,9 @@
       <c r="K148" s="16"/>
       <c r="L148" s="16"/>
       <c r="M148" s="16"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148" s="16"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="15"/>
@@ -4652,8 +4813,9 @@
       <c r="K149" s="16"/>
       <c r="L149" s="16"/>
       <c r="M149" s="16"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149" s="16"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="15"/>
@@ -4666,8 +4828,9 @@
       <c r="K150" s="16"/>
       <c r="L150" s="16"/>
       <c r="M150" s="16"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150" s="16"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="15"/>
@@ -4680,8 +4843,9 @@
       <c r="K151" s="16"/>
       <c r="L151" s="16"/>
       <c r="M151" s="16"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151" s="16"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="15"/>
@@ -4694,8 +4858,9 @@
       <c r="K152" s="16"/>
       <c r="L152" s="16"/>
       <c r="M152" s="16"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152" s="16"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="15"/>
@@ -4708,8 +4873,9 @@
       <c r="K153" s="16"/>
       <c r="L153" s="16"/>
       <c r="M153" s="16"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153" s="16"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="15"/>
@@ -4722,8 +4888,9 @@
       <c r="K154" s="16"/>
       <c r="L154" s="16"/>
       <c r="M154" s="16"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154" s="16"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="15"/>
@@ -4736,8 +4903,9 @@
       <c r="K155" s="16"/>
       <c r="L155" s="16"/>
       <c r="M155" s="16"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155" s="16"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="15"/>
@@ -4750,8 +4918,9 @@
       <c r="K156" s="16"/>
       <c r="L156" s="16"/>
       <c r="M156" s="16"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156" s="16"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="15"/>
@@ -4764,8 +4933,9 @@
       <c r="K157" s="16"/>
       <c r="L157" s="16"/>
       <c r="M157" s="16"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157" s="16"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="15"/>
@@ -4778,8 +4948,9 @@
       <c r="K158" s="16"/>
       <c r="L158" s="16"/>
       <c r="M158" s="16"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158" s="16"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="15"/>
@@ -4793,8 +4964,9 @@
       <c r="K159" s="16"/>
       <c r="L159" s="16"/>
       <c r="M159" s="16"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159" s="16"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="15"/>
@@ -4807,8 +4979,9 @@
       <c r="K160" s="16"/>
       <c r="L160" s="16"/>
       <c r="M160" s="16"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160" s="16"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="15"/>
@@ -4821,8 +4994,9 @@
       <c r="K161" s="16"/>
       <c r="L161" s="16"/>
       <c r="M161" s="16"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161" s="16"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="15"/>
@@ -4835,8 +5009,9 @@
       <c r="K162" s="16"/>
       <c r="L162" s="16"/>
       <c r="M162" s="16"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162" s="16"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="15"/>
@@ -4849,8 +5024,9 @@
       <c r="K163" s="16"/>
       <c r="L163" s="16"/>
       <c r="M163" s="16"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163" s="16"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="15"/>
@@ -4863,8 +5039,9 @@
       <c r="K164" s="16"/>
       <c r="L164" s="16"/>
       <c r="M164" s="16"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164" s="16"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="15"/>
@@ -4877,8 +5054,9 @@
       <c r="K165" s="16"/>
       <c r="L165" s="16"/>
       <c r="M165" s="16"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165" s="16"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="15"/>
@@ -4891,8 +5069,9 @@
       <c r="K166" s="16"/>
       <c r="L166" s="16"/>
       <c r="M166" s="16"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166" s="16"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="15"/>
@@ -4905,8 +5084,9 @@
       <c r="K167" s="16"/>
       <c r="L167" s="16"/>
       <c r="M167" s="16"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167" s="16"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="15"/>
@@ -4919,8 +5099,9 @@
       <c r="K168" s="16"/>
       <c r="L168" s="16"/>
       <c r="M168" s="16"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168" s="16"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="15"/>
@@ -4933,8 +5114,9 @@
       <c r="K169" s="16"/>
       <c r="L169" s="16"/>
       <c r="M169" s="16"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169" s="16"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="15"/>
@@ -4947,8 +5129,9 @@
       <c r="K170" s="16"/>
       <c r="L170" s="16"/>
       <c r="M170" s="16"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170" s="16"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="15"/>
@@ -4962,8 +5145,9 @@
       <c r="K171" s="16"/>
       <c r="L171" s="16"/>
       <c r="M171" s="16"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171" s="16"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="15"/>
@@ -4976,8 +5160,9 @@
       <c r="K172" s="16"/>
       <c r="L172" s="16"/>
       <c r="M172" s="16"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172" s="16"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="15"/>
@@ -4990,8 +5175,9 @@
       <c r="K173" s="16"/>
       <c r="L173" s="16"/>
       <c r="M173" s="16"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173" s="16"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="15"/>
@@ -5004,8 +5190,9 @@
       <c r="K174" s="16"/>
       <c r="L174" s="16"/>
       <c r="M174" s="16"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174" s="16"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="15"/>
@@ -5018,8 +5205,9 @@
       <c r="K175" s="16"/>
       <c r="L175" s="16"/>
       <c r="M175" s="16"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175" s="16"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="15"/>
@@ -5032,8 +5220,9 @@
       <c r="K176" s="16"/>
       <c r="L176" s="16"/>
       <c r="M176" s="16"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176" s="16"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="15"/>
@@ -5046,8 +5235,9 @@
       <c r="K177" s="16"/>
       <c r="L177" s="16"/>
       <c r="M177" s="16"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177" s="16"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="15"/>
@@ -5060,8 +5250,9 @@
       <c r="K178" s="16"/>
       <c r="L178" s="16"/>
       <c r="M178" s="16"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178" s="16"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="15"/>
@@ -5074,8 +5265,9 @@
       <c r="K179" s="16"/>
       <c r="L179" s="16"/>
       <c r="M179" s="16"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" s="16"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="15"/>
@@ -5088,8 +5280,9 @@
       <c r="K180" s="16"/>
       <c r="L180" s="16"/>
       <c r="M180" s="16"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180" s="16"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="15"/>
@@ -5102,8 +5295,9 @@
       <c r="K181" s="16"/>
       <c r="L181" s="16"/>
       <c r="M181" s="16"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" s="16"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="15"/>
@@ -5116,8 +5310,9 @@
       <c r="K182" s="16"/>
       <c r="L182" s="16"/>
       <c r="M182" s="16"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182" s="16"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="15"/>
@@ -5131,8 +5326,9 @@
       <c r="K183" s="16"/>
       <c r="L183" s="16"/>
       <c r="M183" s="16"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" s="16"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="15"/>
@@ -5145,8 +5341,9 @@
       <c r="K184" s="16"/>
       <c r="L184" s="16"/>
       <c r="M184" s="16"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184" s="16"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="15"/>
@@ -5159,8 +5356,9 @@
       <c r="K185" s="16"/>
       <c r="L185" s="16"/>
       <c r="M185" s="16"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" s="16"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="15"/>
@@ -5173,8 +5371,9 @@
       <c r="K186" s="16"/>
       <c r="L186" s="16"/>
       <c r="M186" s="16"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186" s="16"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="15"/>
@@ -5187,8 +5386,9 @@
       <c r="K187" s="16"/>
       <c r="L187" s="16"/>
       <c r="M187" s="16"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187" s="16"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="15"/>
@@ -5201,8 +5401,9 @@
       <c r="K188" s="16"/>
       <c r="L188" s="16"/>
       <c r="M188" s="16"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" s="16"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="15"/>
@@ -5215,8 +5416,9 @@
       <c r="K189" s="16"/>
       <c r="L189" s="16"/>
       <c r="M189" s="16"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" s="16"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="15"/>
@@ -5229,8 +5431,9 @@
       <c r="K190" s="16"/>
       <c r="L190" s="16"/>
       <c r="M190" s="16"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190" s="16"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="15"/>
@@ -5243,8 +5446,9 @@
       <c r="K191" s="16"/>
       <c r="L191" s="16"/>
       <c r="M191" s="16"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191" s="16"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="15"/>
@@ -5257,8 +5461,9 @@
       <c r="K192" s="16"/>
       <c r="L192" s="16"/>
       <c r="M192" s="16"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="16"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="15"/>
@@ -5271,8 +5476,9 @@
       <c r="K193" s="16"/>
       <c r="L193" s="16"/>
       <c r="M193" s="16"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193" s="16"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="15"/>
@@ -5285,8 +5491,9 @@
       <c r="K194" s="16"/>
       <c r="L194" s="16"/>
       <c r="M194" s="16"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194" s="16"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="15"/>
@@ -5300,8 +5507,9 @@
       <c r="K195" s="16"/>
       <c r="L195" s="16"/>
       <c r="M195" s="16"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195" s="16"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="15"/>
@@ -5314,8 +5522,9 @@
       <c r="K196" s="16"/>
       <c r="L196" s="16"/>
       <c r="M196" s="16"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196" s="16"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="15"/>
@@ -5328,8 +5537,9 @@
       <c r="K197" s="16"/>
       <c r="L197" s="16"/>
       <c r="M197" s="16"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197" s="16"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="15"/>
@@ -5342,8 +5552,9 @@
       <c r="K198" s="16"/>
       <c r="L198" s="16"/>
       <c r="M198" s="16"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198" s="16"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="15"/>
@@ -5356,8 +5567,9 @@
       <c r="K199" s="16"/>
       <c r="L199" s="16"/>
       <c r="M199" s="16"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199" s="16"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="15"/>
@@ -5370,8 +5582,9 @@
       <c r="K200" s="16"/>
       <c r="L200" s="16"/>
       <c r="M200" s="16"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200" s="16"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="15"/>
@@ -5384,8 +5597,9 @@
       <c r="K201" s="16"/>
       <c r="L201" s="16"/>
       <c r="M201" s="16"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201" s="16"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="15"/>
@@ -5398,8 +5612,9 @@
       <c r="K202" s="16"/>
       <c r="L202" s="16"/>
       <c r="M202" s="16"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202" s="16"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="15"/>
@@ -5412,8 +5627,9 @@
       <c r="K203" s="16"/>
       <c r="L203" s="16"/>
       <c r="M203" s="16"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203" s="16"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="15"/>
@@ -5426,8 +5642,9 @@
       <c r="K204" s="16"/>
       <c r="L204" s="16"/>
       <c r="M204" s="16"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204" s="16"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="15"/>
@@ -5440,8 +5657,9 @@
       <c r="K205" s="16"/>
       <c r="L205" s="16"/>
       <c r="M205" s="16"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205" s="16"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="15"/>
@@ -5454,8 +5672,9 @@
       <c r="K206" s="16"/>
       <c r="L206" s="16"/>
       <c r="M206" s="16"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206" s="16"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="15"/>
@@ -5469,8 +5688,9 @@
       <c r="K207" s="16"/>
       <c r="L207" s="16"/>
       <c r="M207" s="16"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207" s="16"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="15"/>
@@ -5483,8 +5703,9 @@
       <c r="K208" s="16"/>
       <c r="L208" s="16"/>
       <c r="M208" s="16"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208" s="16"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="15"/>
@@ -5497,8 +5718,9 @@
       <c r="K209" s="16"/>
       <c r="L209" s="16"/>
       <c r="M209" s="16"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209" s="16"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="15"/>
@@ -5511,8 +5733,9 @@
       <c r="K210" s="16"/>
       <c r="L210" s="16"/>
       <c r="M210" s="16"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210" s="16"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="15"/>
@@ -5525,8 +5748,9 @@
       <c r="K211" s="16"/>
       <c r="L211" s="16"/>
       <c r="M211" s="16"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211" s="16"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="15"/>
@@ -5539,8 +5763,9 @@
       <c r="K212" s="16"/>
       <c r="L212" s="16"/>
       <c r="M212" s="16"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212" s="16"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="15"/>
@@ -5553,8 +5778,9 @@
       <c r="K213" s="16"/>
       <c r="L213" s="16"/>
       <c r="M213" s="16"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" s="16"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="15"/>
@@ -5567,8 +5793,9 @@
       <c r="K214" s="16"/>
       <c r="L214" s="16"/>
       <c r="M214" s="16"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214" s="16"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="15"/>
@@ -5581,8 +5808,9 @@
       <c r="K215" s="16"/>
       <c r="L215" s="16"/>
       <c r="M215" s="16"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215" s="16"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="15"/>
@@ -5595,8 +5823,9 @@
       <c r="K216" s="16"/>
       <c r="L216" s="16"/>
       <c r="M216" s="16"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216" s="16"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="15"/>
@@ -5609,8 +5838,9 @@
       <c r="K217" s="16"/>
       <c r="L217" s="16"/>
       <c r="M217" s="16"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217" s="16"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="15"/>
@@ -5623,8 +5853,9 @@
       <c r="K218" s="16"/>
       <c r="L218" s="16"/>
       <c r="M218" s="16"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218" s="16"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="15"/>
@@ -5638,8 +5869,9 @@
       <c r="K219" s="16"/>
       <c r="L219" s="16"/>
       <c r="M219" s="16"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219" s="16"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="15"/>
@@ -5652,8 +5884,9 @@
       <c r="K220" s="16"/>
       <c r="L220" s="16"/>
       <c r="M220" s="16"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220" s="16"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="15"/>
@@ -5666,8 +5899,9 @@
       <c r="K221" s="16"/>
       <c r="L221" s="16"/>
       <c r="M221" s="16"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221" s="16"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="15"/>
@@ -5680,8 +5914,9 @@
       <c r="K222" s="16"/>
       <c r="L222" s="16"/>
       <c r="M222" s="16"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222" s="16"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="15"/>
@@ -5694,8 +5929,9 @@
       <c r="K223" s="16"/>
       <c r="L223" s="16"/>
       <c r="M223" s="16"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223" s="16"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="15"/>
@@ -5708,6 +5944,7 @@
       <c r="K224" s="16"/>
       <c r="L224" s="16"/>
       <c r="M224" s="16"/>
+      <c r="N224" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5720,10 +5957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N224"/>
+  <dimension ref="A1:O224"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5735,37 +5972,38 @@
     <col min="6" max="6" width="32" style="13" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" style="22" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" style="22" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="24.5" style="22" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" style="22" customWidth="1"/>
-    <col min="14" max="16384" width="11.5" style="3"/>
+    <col min="9" max="10" width="20.6640625" style="22" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="23.33203125" style="22" customWidth="1"/>
+    <col min="13" max="13" width="24.5" style="22" customWidth="1"/>
+    <col min="14" max="14" width="21.83203125" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="28" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="26" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="29"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
+    </row>
+    <row r="2" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -5794,19 +6032,22 @@
         <v>13</v>
       </c>
       <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="8"/>
@@ -5820,8 +6061,9 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="8"/>
@@ -5834,8 +6076,9 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="8"/>
@@ -5848,8 +6091,9 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="8"/>
@@ -5862,8 +6106,9 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="8"/>
@@ -5876,8 +6121,9 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="8"/>
@@ -5890,8 +6136,9 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
@@ -5904,8 +6151,9 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="8"/>
@@ -5918,8 +6166,9 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="8"/>
@@ -5932,8 +6181,9 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="8"/>
@@ -5946,8 +6196,9 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="8"/>
@@ -5960,8 +6211,9 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="8"/>
@@ -5974,8 +6226,9 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="8"/>
@@ -5989,8 +6242,9 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="8"/>
@@ -6003,8 +6257,9 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="8"/>
@@ -6017,8 +6272,9 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="8"/>
@@ -6031,8 +6287,9 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="8"/>
@@ -6045,8 +6302,9 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="8"/>
@@ -6059,8 +6317,9 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="8"/>
@@ -6073,8 +6332,9 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="8"/>
@@ -6087,8 +6347,9 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="8"/>
@@ -6101,8 +6362,9 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="8"/>
@@ -6115,8 +6377,9 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="8"/>
@@ -6129,8 +6392,9 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="8"/>
@@ -6143,8 +6407,9 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="8"/>
@@ -6158,8 +6423,9 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="8"/>
@@ -6172,8 +6438,9 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="8"/>
@@ -6186,8 +6453,9 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="8"/>
@@ -6200,8 +6468,9 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="8"/>
@@ -6214,8 +6483,9 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="9"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="8"/>
@@ -6228,8 +6498,9 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="9"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
@@ -6242,8 +6513,9 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
@@ -6256,8 +6528,9 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="8"/>
@@ -6270,8 +6543,9 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="8"/>
@@ -6284,8 +6558,9 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="8"/>
@@ -6298,8 +6573,9 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="8"/>
@@ -6312,8 +6588,9 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="8"/>
@@ -6327,8 +6604,9 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="8"/>
@@ -6341,8 +6619,9 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="8"/>
@@ -6355,8 +6634,9 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="8"/>
@@ -6369,8 +6649,9 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="8"/>
@@ -6383,8 +6664,9 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="8"/>
@@ -6397,8 +6679,9 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="8"/>
@@ -6411,8 +6694,9 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="9"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="8"/>
@@ -6425,8 +6709,9 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="8"/>
@@ -6439,8 +6724,9 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="9"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="8"/>
@@ -6453,8 +6739,9 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="8"/>
@@ -6467,8 +6754,9 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="8"/>
@@ -6481,8 +6769,9 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="8"/>
@@ -6496,8 +6785,9 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="9"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="8"/>
@@ -6510,8 +6800,9 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="8"/>
@@ -6524,8 +6815,9 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="8"/>
@@ -6538,8 +6830,9 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="8"/>
@@ -6552,8 +6845,9 @@
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="8"/>
@@ -6566,8 +6860,9 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="8"/>
@@ -6580,8 +6875,9 @@
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="8"/>
@@ -6594,8 +6890,9 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="8"/>
@@ -6608,8 +6905,9 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="8"/>
@@ -6622,8 +6920,9 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="8"/>
@@ -6636,8 +6935,9 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="8"/>
@@ -6650,8 +6950,9 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="8"/>
@@ -6665,8 +6966,9 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="8"/>
@@ -6679,8 +6981,9 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="8"/>
@@ -6693,8 +6996,9 @@
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="8"/>
@@ -6707,8 +7011,9 @@
       <c r="K66" s="9"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="8"/>
@@ -6721,8 +7026,9 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="8"/>
@@ -6735,8 +7041,9 @@
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="8"/>
@@ -6749,8 +7056,9 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="8"/>
@@ -6763,8 +7071,9 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="8"/>
@@ -6777,8 +7086,9 @@
       <c r="K71" s="9"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="9"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="8"/>
@@ -6791,8 +7101,9 @@
       <c r="K72" s="9"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="8"/>
@@ -6805,8 +7116,9 @@
       <c r="K73" s="9"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="9"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="8"/>
@@ -6819,8 +7131,9 @@
       <c r="K74" s="9"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="9"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="8"/>
@@ -6834,8 +7147,9 @@
       <c r="K75" s="9"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="8"/>
@@ -6848,8 +7162,9 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="9"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="8"/>
@@ -6862,8 +7177,9 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="9"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="8"/>
@@ -6876,8 +7192,9 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="8"/>
@@ -6890,8 +7207,9 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="8"/>
@@ -6904,8 +7222,9 @@
       <c r="K80" s="9"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="9"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="8"/>
@@ -6918,8 +7237,9 @@
       <c r="K81" s="9"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="8"/>
@@ -6932,8 +7252,9 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="8"/>
@@ -6946,8 +7267,9 @@
       <c r="K83" s="9"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="9"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="8"/>
@@ -6960,8 +7282,9 @@
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="8"/>
@@ -6974,8 +7297,9 @@
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="8"/>
@@ -6988,8 +7312,9 @@
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="9"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="8"/>
@@ -7003,8 +7328,9 @@
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="9"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="8"/>
@@ -7017,8 +7343,9 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="9"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="8"/>
@@ -7031,8 +7358,9 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="9"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="8"/>
@@ -7045,8 +7373,9 @@
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="9"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="8"/>
@@ -7059,8 +7388,9 @@
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="8"/>
@@ -7073,8 +7403,9 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="9"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="8"/>
@@ -7087,8 +7418,9 @@
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="9"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="8"/>
@@ -7101,8 +7433,9 @@
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="9"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="8"/>
@@ -7115,8 +7448,9 @@
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="9"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="8"/>
@@ -7129,8 +7463,9 @@
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="9"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="8"/>
@@ -7143,8 +7478,9 @@
       <c r="K97" s="9"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="9"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="8"/>
@@ -7157,8 +7493,9 @@
       <c r="K98" s="9"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="9"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="8"/>
@@ -7172,8 +7509,9 @@
       <c r="K99" s="9"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="9"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="8"/>
@@ -7186,8 +7524,9 @@
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="9"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="8"/>
@@ -7200,8 +7539,9 @@
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="9"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="8"/>
@@ -7214,8 +7554,9 @@
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N102" s="9"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="8"/>
@@ -7228,8 +7569,9 @@
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N103" s="9"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="8"/>
@@ -7242,8 +7584,9 @@
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N104" s="9"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="8"/>
@@ -7256,8 +7599,9 @@
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N105" s="9"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="8"/>
@@ -7270,8 +7614,9 @@
       <c r="K106" s="9"/>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N106" s="9"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="8"/>
@@ -7284,8 +7629,9 @@
       <c r="K107" s="9"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N107" s="9"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="8"/>
@@ -7298,8 +7644,9 @@
       <c r="K108" s="9"/>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N108" s="9"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="8"/>
@@ -7312,8 +7659,9 @@
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N109" s="9"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="8"/>
@@ -7326,8 +7674,9 @@
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N110" s="9"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="8"/>
@@ -7341,8 +7690,9 @@
       <c r="K111" s="9"/>
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N111" s="9"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="8"/>
@@ -7355,8 +7705,9 @@
       <c r="K112" s="9"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N112" s="9"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="8"/>
@@ -7369,8 +7720,9 @@
       <c r="K113" s="9"/>
       <c r="L113" s="9"/>
       <c r="M113" s="9"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N113" s="9"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="8"/>
@@ -7383,8 +7735,9 @@
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N114" s="9"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="8"/>
@@ -7397,8 +7750,9 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N115" s="9"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="8"/>
@@ -7411,8 +7765,9 @@
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N116" s="9"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="8"/>
@@ -7425,8 +7780,9 @@
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N117" s="9"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="8"/>
@@ -7439,8 +7795,9 @@
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
       <c r="M118" s="9"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N118" s="9"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="8"/>
@@ -7453,8 +7810,9 @@
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N119" s="9"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="8"/>
@@ -7467,8 +7825,9 @@
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N120" s="9"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="8"/>
@@ -7481,8 +7840,9 @@
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
       <c r="M121" s="9"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N121" s="9"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="8"/>
@@ -7495,8 +7855,9 @@
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
       <c r="M122" s="9"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N122" s="9"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="8"/>
@@ -7510,8 +7871,9 @@
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
       <c r="M123" s="9"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N123" s="9"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="8"/>
@@ -7524,8 +7886,9 @@
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
       <c r="M124" s="9"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N124" s="9"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="8"/>
@@ -7538,8 +7901,9 @@
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N125" s="9"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="8"/>
@@ -7552,8 +7916,9 @@
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N126" s="9"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="8"/>
@@ -7566,8 +7931,9 @@
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N127" s="9"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="8"/>
@@ -7580,8 +7946,9 @@
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N128" s="9"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="8"/>
@@ -7594,8 +7961,9 @@
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
       <c r="M129" s="9"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N129" s="9"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="8"/>
@@ -7608,8 +7976,9 @@
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N130" s="9"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="8"/>
@@ -7622,8 +7991,9 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N131" s="9"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="8"/>
@@ -7636,8 +8006,9 @@
       <c r="K132" s="9"/>
       <c r="L132" s="9"/>
       <c r="M132" s="9"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N132" s="9"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="8"/>
@@ -7650,8 +8021,9 @@
       <c r="K133" s="9"/>
       <c r="L133" s="9"/>
       <c r="M133" s="9"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N133" s="9"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="8"/>
@@ -7664,8 +8036,9 @@
       <c r="K134" s="9"/>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N134" s="9"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="8"/>
@@ -7679,8 +8052,9 @@
       <c r="K135" s="9"/>
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N135" s="9"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="8"/>
@@ -7693,8 +8067,9 @@
       <c r="K136" s="9"/>
       <c r="L136" s="9"/>
       <c r="M136" s="9"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N136" s="9"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="8"/>
@@ -7707,8 +8082,9 @@
       <c r="K137" s="9"/>
       <c r="L137" s="9"/>
       <c r="M137" s="9"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N137" s="9"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="8"/>
@@ -7721,8 +8097,9 @@
       <c r="K138" s="9"/>
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N138" s="9"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="8"/>
@@ -7735,8 +8112,9 @@
       <c r="K139" s="9"/>
       <c r="L139" s="9"/>
       <c r="M139" s="9"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N139" s="9"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="8"/>
@@ -7749,8 +8127,9 @@
       <c r="K140" s="9"/>
       <c r="L140" s="9"/>
       <c r="M140" s="9"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N140" s="9"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="8"/>
@@ -7763,8 +8142,9 @@
       <c r="K141" s="9"/>
       <c r="L141" s="9"/>
       <c r="M141" s="9"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N141" s="9"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="8"/>
@@ -7777,8 +8157,9 @@
       <c r="K142" s="9"/>
       <c r="L142" s="9"/>
       <c r="M142" s="9"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N142" s="9"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="8"/>
@@ -7791,8 +8172,9 @@
       <c r="K143" s="9"/>
       <c r="L143" s="9"/>
       <c r="M143" s="9"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N143" s="9"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="8"/>
@@ -7805,8 +8187,9 @@
       <c r="K144" s="9"/>
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N144" s="9"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="8"/>
@@ -7819,8 +8202,9 @@
       <c r="K145" s="9"/>
       <c r="L145" s="9"/>
       <c r="M145" s="9"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N145" s="9"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="8"/>
@@ -7833,8 +8217,9 @@
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
       <c r="M146" s="9"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N146" s="9"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="8"/>
@@ -7848,8 +8233,9 @@
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
       <c r="M147" s="9"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N147" s="9"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="8"/>
@@ -7862,8 +8248,9 @@
       <c r="K148" s="9"/>
       <c r="L148" s="9"/>
       <c r="M148" s="9"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N148" s="9"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="8"/>
@@ -7876,8 +8263,9 @@
       <c r="K149" s="9"/>
       <c r="L149" s="9"/>
       <c r="M149" s="9"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N149" s="9"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="8"/>
@@ -7890,8 +8278,9 @@
       <c r="K150" s="9"/>
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N150" s="9"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="8"/>
@@ -7904,8 +8293,9 @@
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N151" s="9"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="8"/>
@@ -7918,8 +8308,9 @@
       <c r="K152" s="9"/>
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N152" s="9"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="8"/>
@@ -7932,8 +8323,9 @@
       <c r="K153" s="9"/>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N153" s="9"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="8"/>
@@ -7946,8 +8338,9 @@
       <c r="K154" s="9"/>
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N154" s="9"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="8"/>
@@ -7960,8 +8353,9 @@
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
       <c r="M155" s="9"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N155" s="9"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="8"/>
@@ -7974,8 +8368,9 @@
       <c r="K156" s="9"/>
       <c r="L156" s="9"/>
       <c r="M156" s="9"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N156" s="9"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="8"/>
@@ -7988,8 +8383,9 @@
       <c r="K157" s="9"/>
       <c r="L157" s="9"/>
       <c r="M157" s="9"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N157" s="9"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="8"/>
@@ -8002,8 +8398,9 @@
       <c r="K158" s="9"/>
       <c r="L158" s="9"/>
       <c r="M158" s="9"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N158" s="9"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="8"/>
@@ -8017,8 +8414,9 @@
       <c r="K159" s="9"/>
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N159" s="9"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="8"/>
@@ -8031,8 +8429,9 @@
       <c r="K160" s="9"/>
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N160" s="9"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="8"/>
@@ -8045,8 +8444,9 @@
       <c r="K161" s="9"/>
       <c r="L161" s="9"/>
       <c r="M161" s="9"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N161" s="9"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="8"/>
@@ -8059,8 +8459,9 @@
       <c r="K162" s="9"/>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N162" s="9"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="8"/>
@@ -8073,8 +8474,9 @@
       <c r="K163" s="9"/>
       <c r="L163" s="9"/>
       <c r="M163" s="9"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N163" s="9"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="8"/>
@@ -8087,8 +8489,9 @@
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
       <c r="M164" s="9"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N164" s="9"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="8"/>
@@ -8101,8 +8504,9 @@
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N165" s="9"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="8"/>
@@ -8115,8 +8519,9 @@
       <c r="K166" s="9"/>
       <c r="L166" s="9"/>
       <c r="M166" s="9"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N166" s="9"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="8"/>
@@ -8129,8 +8534,9 @@
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
       <c r="M167" s="9"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N167" s="9"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="8"/>
@@ -8143,8 +8549,9 @@
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
       <c r="M168" s="9"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N168" s="9"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="8"/>
@@ -8157,8 +8564,9 @@
       <c r="K169" s="9"/>
       <c r="L169" s="9"/>
       <c r="M169" s="9"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N169" s="9"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="8"/>
@@ -8171,8 +8579,9 @@
       <c r="K170" s="9"/>
       <c r="L170" s="9"/>
       <c r="M170" s="9"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N170" s="9"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="8"/>
@@ -8186,8 +8595,9 @@
       <c r="K171" s="9"/>
       <c r="L171" s="9"/>
       <c r="M171" s="9"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N171" s="9"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="8"/>
@@ -8200,8 +8610,9 @@
       <c r="K172" s="9"/>
       <c r="L172" s="9"/>
       <c r="M172" s="9"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N172" s="9"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="8"/>
@@ -8214,8 +8625,9 @@
       <c r="K173" s="9"/>
       <c r="L173" s="9"/>
       <c r="M173" s="9"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N173" s="9"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="8"/>
@@ -8228,8 +8640,9 @@
       <c r="K174" s="9"/>
       <c r="L174" s="9"/>
       <c r="M174" s="9"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N174" s="9"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="8"/>
@@ -8242,8 +8655,9 @@
       <c r="K175" s="9"/>
       <c r="L175" s="9"/>
       <c r="M175" s="9"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N175" s="9"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="8"/>
@@ -8256,8 +8670,9 @@
       <c r="K176" s="9"/>
       <c r="L176" s="9"/>
       <c r="M176" s="9"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N176" s="9"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="8"/>
@@ -8270,8 +8685,9 @@
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
       <c r="M177" s="9"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N177" s="9"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="8"/>
@@ -8284,8 +8700,9 @@
       <c r="K178" s="9"/>
       <c r="L178" s="9"/>
       <c r="M178" s="9"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N178" s="9"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="8"/>
@@ -8298,8 +8715,9 @@
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
       <c r="M179" s="9"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N179" s="9"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="8"/>
@@ -8312,8 +8730,9 @@
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
       <c r="M180" s="9"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N180" s="9"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="8"/>
@@ -8326,8 +8745,9 @@
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
       <c r="M181" s="9"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N181" s="9"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="8"/>
@@ -8340,8 +8760,9 @@
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
       <c r="M182" s="9"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N182" s="9"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="8"/>
@@ -8355,8 +8776,9 @@
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
       <c r="M183" s="9"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N183" s="9"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="8"/>
@@ -8369,8 +8791,9 @@
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
       <c r="M184" s="9"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N184" s="9"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="8"/>
@@ -8383,8 +8806,9 @@
       <c r="K185" s="9"/>
       <c r="L185" s="9"/>
       <c r="M185" s="9"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N185" s="9"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="8"/>
@@ -8397,8 +8821,9 @@
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
       <c r="M186" s="9"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N186" s="9"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="8"/>
@@ -8411,8 +8836,9 @@
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
       <c r="M187" s="9"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N187" s="9"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="8"/>
@@ -8425,8 +8851,9 @@
       <c r="K188" s="9"/>
       <c r="L188" s="9"/>
       <c r="M188" s="9"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N188" s="9"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="8"/>
@@ -8439,8 +8866,9 @@
       <c r="K189" s="9"/>
       <c r="L189" s="9"/>
       <c r="M189" s="9"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N189" s="9"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="8"/>
@@ -8453,8 +8881,9 @@
       <c r="K190" s="9"/>
       <c r="L190" s="9"/>
       <c r="M190" s="9"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N190" s="9"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="8"/>
@@ -8467,8 +8896,9 @@
       <c r="K191" s="9"/>
       <c r="L191" s="9"/>
       <c r="M191" s="9"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N191" s="9"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="8"/>
@@ -8481,8 +8911,9 @@
       <c r="K192" s="9"/>
       <c r="L192" s="9"/>
       <c r="M192" s="9"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N192" s="9"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="8"/>
@@ -8495,8 +8926,9 @@
       <c r="K193" s="9"/>
       <c r="L193" s="9"/>
       <c r="M193" s="9"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N193" s="9"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="8"/>
@@ -8509,8 +8941,9 @@
       <c r="K194" s="9"/>
       <c r="L194" s="9"/>
       <c r="M194" s="9"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N194" s="9"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="8"/>
@@ -8524,8 +8957,9 @@
       <c r="K195" s="9"/>
       <c r="L195" s="9"/>
       <c r="M195" s="9"/>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N195" s="9"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="8"/>
@@ -8538,8 +8972,9 @@
       <c r="K196" s="9"/>
       <c r="L196" s="9"/>
       <c r="M196" s="9"/>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N196" s="9"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="8"/>
@@ -8552,8 +8987,9 @@
       <c r="K197" s="9"/>
       <c r="L197" s="9"/>
       <c r="M197" s="9"/>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N197" s="9"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="8"/>
@@ -8566,8 +9002,9 @@
       <c r="K198" s="9"/>
       <c r="L198" s="9"/>
       <c r="M198" s="9"/>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N198" s="9"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="8"/>
@@ -8580,8 +9017,9 @@
       <c r="K199" s="9"/>
       <c r="L199" s="9"/>
       <c r="M199" s="9"/>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N199" s="9"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="8"/>
@@ -8594,8 +9032,9 @@
       <c r="K200" s="9"/>
       <c r="L200" s="9"/>
       <c r="M200" s="9"/>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N200" s="9"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="8"/>
@@ -8608,8 +9047,9 @@
       <c r="K201" s="9"/>
       <c r="L201" s="9"/>
       <c r="M201" s="9"/>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N201" s="9"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="8"/>
@@ -8622,8 +9062,9 @@
       <c r="K202" s="9"/>
       <c r="L202" s="9"/>
       <c r="M202" s="9"/>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N202" s="9"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="8"/>
@@ -8636,8 +9077,9 @@
       <c r="K203" s="9"/>
       <c r="L203" s="9"/>
       <c r="M203" s="9"/>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N203" s="9"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="8"/>
@@ -8650,8 +9092,9 @@
       <c r="K204" s="9"/>
       <c r="L204" s="9"/>
       <c r="M204" s="9"/>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N204" s="9"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="8"/>
@@ -8664,8 +9107,9 @@
       <c r="K205" s="9"/>
       <c r="L205" s="9"/>
       <c r="M205" s="9"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N205" s="9"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="8"/>
@@ -8678,8 +9122,9 @@
       <c r="K206" s="9"/>
       <c r="L206" s="9"/>
       <c r="M206" s="9"/>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N206" s="9"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="8"/>
@@ -8693,8 +9138,9 @@
       <c r="K207" s="9"/>
       <c r="L207" s="9"/>
       <c r="M207" s="9"/>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N207" s="9"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="8"/>
@@ -8707,8 +9153,9 @@
       <c r="K208" s="9"/>
       <c r="L208" s="9"/>
       <c r="M208" s="9"/>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N208" s="9"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="8"/>
@@ -8721,8 +9168,9 @@
       <c r="K209" s="9"/>
       <c r="L209" s="9"/>
       <c r="M209" s="9"/>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N209" s="9"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="8"/>
@@ -8735,8 +9183,9 @@
       <c r="K210" s="9"/>
       <c r="L210" s="9"/>
       <c r="M210" s="9"/>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N210" s="9"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="8"/>
@@ -8749,8 +9198,9 @@
       <c r="K211" s="9"/>
       <c r="L211" s="9"/>
       <c r="M211" s="9"/>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N211" s="9"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="8"/>
@@ -8763,8 +9213,9 @@
       <c r="K212" s="9"/>
       <c r="L212" s="9"/>
       <c r="M212" s="9"/>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N212" s="9"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="8"/>
@@ -8777,8 +9228,9 @@
       <c r="K213" s="9"/>
       <c r="L213" s="9"/>
       <c r="M213" s="9"/>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N213" s="9"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="8"/>
@@ -8791,8 +9243,9 @@
       <c r="K214" s="9"/>
       <c r="L214" s="9"/>
       <c r="M214" s="9"/>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N214" s="9"/>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="8"/>
@@ -8805,8 +9258,9 @@
       <c r="K215" s="9"/>
       <c r="L215" s="9"/>
       <c r="M215" s="9"/>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N215" s="9"/>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="8"/>
@@ -8819,8 +9273,9 @@
       <c r="K216" s="9"/>
       <c r="L216" s="9"/>
       <c r="M216" s="9"/>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N216" s="9"/>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="8"/>
@@ -8833,8 +9288,9 @@
       <c r="K217" s="9"/>
       <c r="L217" s="9"/>
       <c r="M217" s="9"/>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N217" s="9"/>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="8"/>
@@ -8847,8 +9303,9 @@
       <c r="K218" s="9"/>
       <c r="L218" s="9"/>
       <c r="M218" s="9"/>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N218" s="9"/>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="8"/>
@@ -8862,8 +9319,9 @@
       <c r="K219" s="9"/>
       <c r="L219" s="9"/>
       <c r="M219" s="9"/>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N219" s="9"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="8"/>
@@ -8876,8 +9334,9 @@
       <c r="K220" s="9"/>
       <c r="L220" s="9"/>
       <c r="M220" s="9"/>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N220" s="9"/>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="8"/>
@@ -8890,8 +9349,9 @@
       <c r="K221" s="9"/>
       <c r="L221" s="9"/>
       <c r="M221" s="9"/>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N221" s="9"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="8"/>
@@ -8904,8 +9364,9 @@
       <c r="K222" s="9"/>
       <c r="L222" s="9"/>
       <c r="M222" s="9"/>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N222" s="9"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="8"/>
@@ -8918,8 +9379,9 @@
       <c r="K223" s="9"/>
       <c r="L223" s="9"/>
       <c r="M223" s="9"/>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N223" s="9"/>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="8"/>
@@ -8932,6 +9394,7 @@
       <c r="K224" s="9"/>
       <c r="L224" s="9"/>
       <c r="M224" s="9"/>
+      <c r="N224" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
